--- a/API_Automation/data/test_user_data.xlsx
+++ b/API_Automation/data/test_user_data.xlsx
@@ -1,49 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanyuan/PycharmProjects/pytest/API_Automation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF1040-86FC-1246-AFFA-1937A6596A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C256402-BD44-2841-A92D-E1BC151C15FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="460" windowWidth="28240" windowHeight="17040" xr2:uid="{15770845-894C-CF40-8D9D-12F7558AD752}"/>
+    <workbookView minimized="1" xWindow="1820" yWindow="2820" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userlogin" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+  <si>
+    <t>case_id</t>
+  </si>
   <si>
     <t>case_name</t>
+  </si>
+  <si>
+    <t>case_explain</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>methon</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Actual_results</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>验证有效用户‘张三’登陆</t>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/login/</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"name": "张三","password":"123456"}</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>验证登陆用户密码错误</t>
+  </si>
+  <si>
+    <t>{"name": "张三","password":"123457"}</t>
+  </si>
+  <si>
+    <t>test_user_login_normal02</t>
+  </si>
+  <si>
+    <t>{"name": "范冰冰","password":"123456"}</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;失败，用户不存在&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>test_user_reg_exist</t>
+  </si>
+  <si>
+    <t>{"code": "100001","msg": "失败，用户已存在","data": {"name": "张三","password":"e10adc3949ba59abbe56e057f20f883e"}}</t>
+  </si>
+  <si>
+    <t>test_user_login_wrong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
+    <t>test_user_login_normal01正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>methon</t>
+    <t>http://115.28.108.130:5000/api/user/login/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
+    <t>{"name": "张三","password":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,54 +111,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name": "张三","password":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_login_wrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name": "张三","password":"123457"}</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;失败，用户名或密码错误&lt;/h1&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name": "范冰冰","password":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_reg_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code": "100001","msg": "失败，用户已存在","data": {"name": "张三","password":"e10adc3949ba59abbe56e057f20f883e"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_login_normal01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_login_normal02</t>
+    <t>&lt;h1&gt;失败，用户名或密码错误&lt;/h1&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,30 +123,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,22 +166,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -174,6 +186,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -186,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +219,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -214,7 +231,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -228,12 +245,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -261,31 +278,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -313,23 +313,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,33 +455,36 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC2FB07-8443-DE47-B27B-AE36760DA7A3}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="42.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" customHeight="1">
+    <row r="1" spans="1:10" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +494,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -517,39 +503,63 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="77" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:10" ht="41" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="95" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+    <row r="3" spans="1:10" ht="45" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -557,56 +567,77 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="110" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="55" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="95" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="78" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3C294EC8-FE53-E54A-8317-9D5449C07633}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{176E5AC4-0E79-7D46-8F2F-DBB6A8A56357}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{1E10CEE7-3D4A-C147-93F5-AC374B177019}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{0CF65EB1-792E-A44A-96A5-054295F2E5E5}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{160A7466-8B3C-0746-86D9-C5705C470970}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{28459C25-0D28-CE45-8079-92D86A3D6367}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>